--- a/模型训练/训练工具/训练数据处理/data/train_data/evaluation_standards/评分准则.xlsx
+++ b/模型训练/训练工具/训练数据处理/data/train_data/evaluation_standards/评分准则.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10480"/>
+    <workbookView windowWidth="20060" windowHeight="9200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -117,22 +117,48 @@
   </si>
   <si>
     <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声韵错</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>声韵错</t>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总音节数</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接近母语水平（正确率大致区间</t>
     </r>
     <r>
       <rPr>
@@ -141,6 +167,213 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>95%-100%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>正确率很高（正确率大致区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>85%-90%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确率区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70-90%</t>
+    </r>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能轻松听得懂（正确率大致区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70-85%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>听懂非常吃力（正确率大致区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%-70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正确率区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0-70%</t>
+    </r>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不知所云（正确率大致区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0-50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>声韵调三者人工只评一个判断标准，下面的流利度、完整度、感情虽然只有5、3、1这三个分值，但是介于中间的也可以打成4、2，也就是说1-5这个连续统是完整的。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声调</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>正确率区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>90%-100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>调型错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -154,17 +387,8 @@
     </r>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接近母语水平（正确率大致区间</t>
+    <r>
+      <t>正确率区间</t>
     </r>
     <r>
       <rPr>
@@ -173,505 +397,248 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
+      <t>70-90%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>正确率区间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0-70%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流利度</t>
+    </r>
+  </si>
+  <si>
+    <t>语速</t>
+  </si>
+  <si>
+    <r>
+      <t>语速每分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字及以上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+  </si>
+  <si>
+    <t>语言流畅，富有感情，基本没有认错的字，即使读错也能及时修改或巧妙避免重复式修改</t>
+  </si>
+  <si>
+    <r>
+      <t>语速每分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>60-120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>语速每分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字以下</t>
+    </r>
+  </si>
+  <si>
+    <t>语言较为流畅，无意义的重复少、卡顿少，意识到错误能及时纠正</t>
+  </si>
+  <si>
+    <t>停顿</t>
+  </si>
+  <si>
+    <r>
+      <t>不合理的停顿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以内</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fil/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总字数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不合理的停顿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3%-10%</t>
+    </r>
+  </si>
+  <si>
+    <t>磕磕碰碰，无意义的重复多、卡顿多，意识到错误不能及时纠正</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不合理的停顿超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完整度</t>
+    </r>
+  </si>
+  <si>
+    <t>完整</t>
+  </si>
+  <si>
+    <r>
+      <t>课文朗读完成度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>95%-100%</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正确率很高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（正确率大致区间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>85%-90%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正确率区间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>70-90%</t>
-    </r>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能轻松听得懂（正确率大致区间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>70-85%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>听懂非常吃力（正确率大致区间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50%-70%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>正确率区间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0-70%</t>
-    </r>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不知所云（正确率大致区间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0-50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>声韵调三者人工只评一个判断标准，下面的流利度、完整度、感情虽然只有5、3、1这三个分值，但是介于中间的也可以打成4、2，也就是说1-5这个连续统是完整的。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>声调</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调型错</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总音节数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>流利度</t>
-    </r>
-  </si>
-  <si>
-    <t>语速</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语速每分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字及以上</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒</t>
-    </r>
-  </si>
-  <si>
-    <t>语言流畅，富有感情，基本没有认错的字，即使读错也能及时修改或巧妙避免重复式修改</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语速每分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>60-120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>语速每分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字以下</t>
-    </r>
-  </si>
-  <si>
-    <t>语言较为流畅，无意义的重复少、卡顿少，意识到错误能及时纠正</t>
-  </si>
-  <si>
-    <t>停顿</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不合理的停顿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以内</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fil/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>总字数</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不合理的停顿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3%-10%</t>
-    </r>
-  </si>
-  <si>
-    <t>磕磕碰碰，无意义的重复多、卡顿多，意识到错误不能及时纠正</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不合理的停顿超过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完整度</t>
-    </r>
-  </si>
-  <si>
-    <t>完整</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>课文朗读完成度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>95%-100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
+  </si>
+  <si>
+    <r>
       <t>1-(</t>
     </r>
     <r>
@@ -926,7 +893,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,24 +911,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1602,137 +1551,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1776,7 +1725,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1792,13 +1741,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1807,19 +1753,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1841,46 +1781,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2214,8 +2139,8 @@
   <sheetPr/>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2240,35 +2165,35 @@
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2276,29 +2201,29 @@
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="10">
         <v>5</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="25">
         <v>0.5</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="28">
         <v>5</v>
       </c>
       <c r="K2" s="10" t="str">
@@ -2312,127 +2237,127 @@
       <c r="M2" s="11">
         <v>0.55</v>
       </c>
-      <c r="N2" s="50" t="str">
+      <c r="N2" s="41" t="str">
         <f>"=[Σ(S*T)-min]/(max-min)*100%"</f>
         <v>=[Σ(S*T)-min]/(max-min)*100%</v>
       </c>
-      <c r="P2" s="51"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" ht="14.5" customHeight="1" spans="1:14">
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="14"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="49" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="28">
         <v>4</v>
       </c>
       <c r="K3" s="10"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="52"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" ht="14.5" customHeight="1" spans="1:14">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="24" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="49" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="28">
         <v>3</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="52"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" ht="14.5" customHeight="1" spans="1:14">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="29"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="14"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="49" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="28">
         <v>2</v>
       </c>
       <c r="K5" s="10"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="52"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" ht="14.5" customHeight="1" spans="1:14">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="49" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <v>1</v>
       </c>
       <c r="K6" s="10"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="52"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" ht="14.5" customHeight="1" spans="1:14">
       <c r="A7" s="10"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="40" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="52"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>28</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -2440,21 +2365,21 @@
       <c r="F8" s="10">
         <v>5</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <v>0.5</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="52"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>19</v>
+      <c r="C9" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="10" t="s">
@@ -2463,62 +2388,62 @@
       <c r="F9" s="10">
         <v>3</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="52"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
-        <v>23</v>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="10">
         <v>1</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="52"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="53"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="45"/>
       <c r="K11" s="10"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="52"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>32</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>16</v>
@@ -2526,27 +2451,27 @@
       <c r="F12" s="10">
         <v>5</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <v>0.5</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="25">
+      <c r="H12" s="26"/>
+      <c r="I12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="24">
         <v>5</v>
       </c>
       <c r="K12" s="10"/>
       <c r="M12" s="11">
         <v>0.25</v>
       </c>
-      <c r="N12" s="52"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="12"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="10" t="s">
@@ -2555,19 +2480,19 @@
       <c r="F13" s="10">
         <v>3</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="38"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="14"/>
       <c r="K13" s="10"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="52"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="12"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="40" t="s">
-        <v>35</v>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="10" t="s">
@@ -2576,28 +2501,28 @@
       <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="25">
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="24">
         <v>3</v>
       </c>
       <c r="K14" s="10"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="52"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="12"/>
-      <c r="B15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>39</v>
+      <c r="B15" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>16</v>
@@ -2605,21 +2530,21 @@
       <c r="F15" s="10">
         <v>5</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <v>0.5</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="38"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="14"/>
       <c r="K15" s="10"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="52"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="12"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40" t="s">
-        <v>40</v>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="10" t="s">
@@ -2628,23 +2553,23 @@
       <c r="F16" s="10">
         <v>3</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="25">
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="24">
         <v>1</v>
       </c>
       <c r="K16" s="10"/>
       <c r="M16" s="16"/>
-      <c r="N16" s="52"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="14"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
-        <v>42</v>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="10" t="s">
@@ -2653,39 +2578,39 @@
       <c r="F17" s="10">
         <v>1</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="14"/>
       <c r="K17" s="10"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="52"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="41" t="s">
         <v>46</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="30">
         <v>5</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="40" t="s">
-        <v>47</v>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="J18" s="10">
         <v>5</v>
@@ -2694,122 +2619,122 @@
       <c r="M18" s="11">
         <v>0.1</v>
       </c>
-      <c r="N18" s="52"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="42"/>
+      <c r="C19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="36"/>
       <c r="E19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="30">
         <v>3</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="21" t="s">
-        <v>49</v>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="J19" s="8">
         <v>3</v>
       </c>
       <c r="K19" s="10"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="44"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="10"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="25" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="24" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="10">
         <v>1</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="21" t="s">
-        <v>51</v>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" s="10"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="52"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="27">
+      <c r="A21" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="25">
         <v>1</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="21" t="s">
-        <v>53</v>
+      <c r="H21" s="26"/>
+      <c r="I21" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="J21" s="8">
         <v>5</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>54</v>
+      <c r="K21" s="24" t="s">
+        <v>57</v>
       </c>
       <c r="M21" s="11">
         <v>0.1</v>
       </c>
-      <c r="N21" s="52"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="47"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="21" t="s">
-        <v>55</v>
+      <c r="A22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="J22" s="8">
         <v>3</v>
       </c>
       <c r="K22" s="12"/>
       <c r="M22" s="12"/>
-      <c r="N22" s="52"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="48"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="21" t="s">
-        <v>56</v>
+      <c r="A23" s="40"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="J23" s="8">
         <v>1</v>
       </c>
       <c r="K23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="55"/>
+      <c r="N23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -2897,18 +2822,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10">
         <v>5</v>
@@ -2919,7 +2844,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="10">
         <v>3</v>
@@ -2928,7 +2853,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
@@ -2937,7 +2862,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10">
         <v>5</v>
@@ -2948,7 +2873,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9" s="10">
         <v>4</v>
@@ -2957,7 +2882,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B10" s="10">
         <v>3</v>
@@ -2966,7 +2891,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
@@ -2975,7 +2900,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -2984,7 +2909,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B13" s="10">
         <v>5</v>
@@ -2995,7 +2920,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B14" s="10">
         <v>4</v>
@@ -3004,7 +2929,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" s="10">
         <v>3</v>
@@ -3013,7 +2938,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
@@ -3022,7 +2947,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" s="10">
         <v>1</v>
@@ -3031,7 +2956,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18" s="10">
         <v>5</v>
@@ -3042,7 +2967,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B19" s="10">
         <v>4</v>
@@ -3051,7 +2976,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
@@ -3060,7 +2985,7 @@
     </row>
     <row r="21" ht="28" spans="1:3">
       <c r="A21" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B21" s="10">
         <v>5</v>
@@ -3071,7 +2996,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8">
         <v>4</v>
@@ -3080,7 +3005,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B23" s="8">
         <v>3</v>
@@ -3089,7 +3014,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B24" s="8">
         <v>2</v>
@@ -3098,7 +3023,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8">
         <v>1</v>
